--- a/results/I3_N5_M2_T30_C200_DepCentral_s1_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.2485864913106</v>
+        <v>838.6154668145175</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.3199999999937</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.34</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.75054662682655</v>
+        <v>3.695361957914272</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.60181147454999</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>7.44590858474082</v>
       </c>
     </row>
     <row r="7">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.51610579153741</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.44590858474082</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>203.34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>217.055</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>199.0450000000008</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.0600000000001</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9450000000001</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>131.3150000000001</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>141.15</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>142.6900000000001</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>221.1299999999992</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>219.4849999999992</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>224.1199999999992</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>225.4349999999992</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>221.1299999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>219.4849999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>224.1199999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>225.4349999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.055</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.51</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000008</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.1299999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.48499999999922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.224999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.11999999999921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.43499999999921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.055</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1962,53 +1962,9 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
